--- a/matrix_pixelmap.xlsx
+++ b/matrix_pixelmap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbaccarn\Desktop\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbaccarn\loading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C0F0728-4520-4FFD-80B3-95C00312211F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01798D31-9CEE-4754-9D66-57F64FBD16C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{7145B141-4E5C-4026-BE74-1B2365BE5CBB}"/>
   </bookViews>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -156,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -171,9 +167,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -525,7 +518,7 @@
   <dimension ref="B2:AI9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.54296875" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -637,97 +630,97 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="1">
         <v>14</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="1">
         <v>17</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="1">
         <v>30</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="1">
         <v>33</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="1">
         <v>46</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="1">
         <v>49</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="1">
         <v>62</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="1">
         <v>65</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="1">
         <v>78</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="1">
         <v>81</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="1">
         <v>94</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="1">
         <v>97</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="1">
         <v>110</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="1">
         <v>113</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="1">
         <v>126</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="1">
         <v>129</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="1">
         <v>142</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="1">
         <v>145</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="1">
         <v>158</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="1">
         <v>161</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="1">
         <v>174</v>
       </c>
-      <c r="X3" s="6">
+      <c r="X3" s="1">
         <v>177</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Y3" s="1">
         <v>190</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="Z3" s="1">
         <v>193</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AA3" s="1">
         <v>206</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AB3" s="1">
         <v>209</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AC3" s="1">
         <v>222</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AD3" s="1">
         <v>225</v>
       </c>
-      <c r="AE3" s="6">
+      <c r="AE3" s="1">
         <v>238</v>
       </c>
-      <c r="AF3" s="6">
+      <c r="AF3" s="1">
         <v>241</v>
       </c>
-      <c r="AG3" s="7">
+      <c r="AG3" s="6">
         <v>254</v>
       </c>
       <c r="AH3" s="1"/>
@@ -737,97 +730,97 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="1">
         <v>13</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="1">
         <v>18</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="1">
         <v>29</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="1">
         <v>34</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="1">
         <v>45</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="1">
         <v>50</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="1">
         <v>61</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="1">
         <v>66</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="1">
         <v>77</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="1">
         <v>82</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="1">
         <v>93</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="1">
         <v>98</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="1">
         <v>109</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="1">
         <v>114</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="1">
         <v>125</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="1">
         <v>130</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="1">
         <v>141</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="1">
         <v>146</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="1">
         <v>157</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="1">
         <v>162</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="1">
         <v>173</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="1">
         <v>178</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="1">
         <v>189</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="Z4" s="1">
         <v>194</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="1">
         <v>205</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="1">
         <v>210</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AC4" s="1">
         <v>221</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AD4" s="1">
         <v>226</v>
       </c>
-      <c r="AE4" s="6">
+      <c r="AE4" s="1">
         <v>237</v>
       </c>
-      <c r="AF4" s="6">
+      <c r="AF4" s="1">
         <v>242</v>
       </c>
-      <c r="AG4" s="7">
+      <c r="AG4" s="6">
         <v>253</v>
       </c>
       <c r="AH4" s="1"/>
@@ -837,97 +830,97 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
         <v>19</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="1">
         <v>28</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="1">
         <v>35</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="1">
         <v>44</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="1">
         <v>51</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="1">
         <v>60</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="1">
         <v>67</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="1">
         <v>76</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="1">
         <v>83</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="1">
         <v>92</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="1">
         <v>99</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="1">
         <v>108</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="1">
         <v>115</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="1">
         <v>124</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="1">
         <v>131</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="1">
         <v>140</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="1">
         <v>147</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="1">
         <v>156</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="1">
         <v>163</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="1">
         <v>172</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="1">
         <v>179</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="1">
         <v>188</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="Z5" s="1">
         <v>195</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AA5" s="1">
         <v>204</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AB5" s="1">
         <v>211</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AC5" s="1">
         <v>220</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AD5" s="1">
         <v>227</v>
       </c>
-      <c r="AE5" s="6">
+      <c r="AE5" s="1">
         <v>236</v>
       </c>
-      <c r="AF5" s="6">
+      <c r="AF5" s="1">
         <v>243</v>
       </c>
-      <c r="AG5" s="7">
+      <c r="AG5" s="6">
         <v>252</v>
       </c>
       <c r="AH5" s="1"/>
@@ -937,97 +930,97 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="1">
         <v>11</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="1">
         <v>20</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="1">
         <v>27</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="1">
         <v>36</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="1">
         <v>43</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="1">
         <v>52</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="1">
         <v>59</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="1">
         <v>68</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="1">
         <v>75</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="1">
         <v>84</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="1">
         <v>91</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="1">
         <v>100</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="1">
         <v>107</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="1">
         <v>116</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="1">
         <v>123</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="1">
         <v>132</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="1">
         <v>139</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="1">
         <v>148</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="1">
         <v>155</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="1">
         <v>164</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="1">
         <v>171</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="1">
         <v>180</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6" s="1">
         <v>187</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="Z6" s="1">
         <v>196</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="1">
         <v>203</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AB6" s="1">
         <v>212</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AC6" s="1">
         <v>219</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AD6" s="1">
         <v>228</v>
       </c>
-      <c r="AE6" s="6">
+      <c r="AE6" s="1">
         <v>235</v>
       </c>
-      <c r="AF6" s="6">
+      <c r="AF6" s="1">
         <v>244</v>
       </c>
-      <c r="AG6" s="7">
+      <c r="AG6" s="6">
         <v>251</v>
       </c>
       <c r="AH6" s="1"/>
@@ -1037,97 +1030,97 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="1">
         <v>21</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="1">
         <v>26</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="1">
         <v>37</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="1">
         <v>42</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="1">
         <v>53</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="1">
         <v>58</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="1">
         <v>69</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="1">
         <v>74</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="1">
         <v>85</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="1">
         <v>90</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="1">
         <v>101</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="1">
         <v>106</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="1">
         <v>117</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="1">
         <v>122</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="1">
         <v>133</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="1">
         <v>138</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="1">
         <v>149</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="1">
         <v>154</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="1">
         <v>165</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="1">
         <v>170</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="1">
         <v>181</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Y7" s="1">
         <v>186</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="Z7" s="1">
         <v>197</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AA7" s="1">
         <v>202</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AB7" s="1">
         <v>213</v>
       </c>
-      <c r="AC7" s="6">
+      <c r="AC7" s="1">
         <v>218</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AD7" s="1">
         <v>229</v>
       </c>
-      <c r="AE7" s="6">
+      <c r="AE7" s="1">
         <v>234</v>
       </c>
-      <c r="AF7" s="6">
+      <c r="AF7" s="1">
         <v>245</v>
       </c>
-      <c r="AG7" s="7">
+      <c r="AG7" s="6">
         <v>250</v>
       </c>
       <c r="AH7" s="1"/>
@@ -1137,197 +1130,197 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="1">
         <v>9</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="1">
         <v>22</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="1">
         <v>25</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="1">
         <v>38</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="1">
         <v>41</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="1">
         <v>54</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="1">
         <v>57</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="1">
         <v>70</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="1">
         <v>73</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="1">
         <v>86</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="1">
         <v>89</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="1">
         <v>102</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="1">
         <v>105</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="1">
         <v>118</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="1">
         <v>121</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="1">
         <v>134</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="1">
         <v>137</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="1">
         <v>150</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="1">
         <v>153</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="1">
         <v>166</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="1">
         <v>169</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8" s="1">
         <v>182</v>
       </c>
-      <c r="Y8" s="6">
+      <c r="Y8" s="1">
         <v>185</v>
       </c>
-      <c r="Z8" s="6">
+      <c r="Z8" s="1">
         <v>198</v>
       </c>
-      <c r="AA8" s="6">
+      <c r="AA8" s="1">
         <v>201</v>
       </c>
-      <c r="AB8" s="6">
+      <c r="AB8" s="1">
         <v>214</v>
       </c>
-      <c r="AC8" s="6">
+      <c r="AC8" s="1">
         <v>217</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AD8" s="1">
         <v>230</v>
       </c>
-      <c r="AE8" s="6">
+      <c r="AE8" s="1">
         <v>233</v>
       </c>
-      <c r="AF8" s="6">
+      <c r="AF8" s="1">
         <v>246</v>
       </c>
-      <c r="AG8" s="7">
+      <c r="AG8" s="6">
         <v>249</v>
       </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
     </row>
     <row r="9" spans="2:35" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>8</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>23</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>24</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>39</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>40</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>55</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>56</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>71</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>72</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>87</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>88</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <v>103</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="8">
         <v>104</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="8">
         <v>119</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="8">
         <v>120</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="8">
         <v>135</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="8">
         <v>136</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="8">
         <v>151</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="8">
         <v>152</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="8">
         <v>167</v>
       </c>
-      <c r="W9" s="9">
+      <c r="W9" s="8">
         <v>168</v>
       </c>
-      <c r="X9" s="9">
+      <c r="X9" s="8">
         <v>183</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="Y9" s="8">
         <v>184</v>
       </c>
-      <c r="Z9" s="9">
+      <c r="Z9" s="8">
         <v>199</v>
       </c>
-      <c r="AA9" s="9">
+      <c r="AA9" s="8">
         <v>200</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AB9" s="8">
         <v>215</v>
       </c>
-      <c r="AC9" s="9">
+      <c r="AC9" s="8">
         <v>216</v>
       </c>
-      <c r="AD9" s="9">
+      <c r="AD9" s="8">
         <v>231</v>
       </c>
-      <c r="AE9" s="9">
+      <c r="AE9" s="8">
         <v>232</v>
       </c>
-      <c r="AF9" s="9">
+      <c r="AF9" s="8">
         <v>247</v>
       </c>
-      <c r="AG9" s="10">
+      <c r="AG9" s="9">
         <v>248</v>
       </c>
       <c r="AH9" s="1"/>
